--- a/curso-completo/excel_365_do_zero_ao_avancado/8.intermediario_tabelas_dinamicas/143.exercicios_insercao_tabela_dinamica/116+-+Inserindo+Tabela+Dinâmica (1).xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/8.intermediario_tabelas_dinamicas/143.exercicios_insercao_tabela_dinamica/116+-+Inserindo+Tabela+Dinâmica (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Intermediário\Capítulo 07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\8.intermediario_tabelas_dinamicas\143.exercicios_insercao_tabela_dinamica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F93C02-98D7-4D35-90D3-EF4A4D18AFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914B815-231D-4DF1-85AD-A587F3CCD785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de dados" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Informações" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId10"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="192">
   <si>
     <t>igorgabrielton@gmail.com</t>
   </si>
@@ -947,6 +950,63 @@
       </rPr>
       <t xml:space="preserve"> - MÁX</t>
     </r>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de PREÇO TOTAL</t>
+  </si>
+  <si>
+    <t>Soma de QUANT.</t>
+  </si>
+  <si>
+    <t>Média de PREÇO TOTAL</t>
+  </si>
+  <si>
+    <t>Soma de PREÇO TOTAL2</t>
+  </si>
+  <si>
+    <t>(Tudo)</t>
+  </si>
+  <si>
+    <t>Soma de PREÇO TOTAL3</t>
+  </si>
+  <si>
+    <t>Rótulos de Coluna</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>dez</t>
+  </si>
+  <si>
+    <t>Soma de PREÇO TOTAL4</t>
+  </si>
+  <si>
+    <t>Mín. de PREÇO TOTAL5</t>
+  </si>
+  <si>
+    <t>Máx. de PREÇO TOTAL2</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1120,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1119,13 +1179,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1322,6 +1392,4092 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alan Joffre MacEna de Araujo" refreshedDate="45782.603841435186" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="103" xr:uid="{4EE8FB5F-9D19-4C3A-8CF2-8EA375786198}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B8:K111" sheet="Base de dados"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="DATA DO PEDIDO" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-06-01T00:00:00" maxDate="2021-01-21T00:00:00" count="11">
+        <d v="2020-06-01T00:00:00"/>
+        <d v="2020-07-05T00:00:00"/>
+        <d v="2020-08-15T00:00:00"/>
+        <d v="2020-12-20T00:00:00"/>
+        <d v="2021-01-02T00:00:00"/>
+        <d v="2021-01-05T00:00:00"/>
+        <d v="2021-01-08T00:00:00"/>
+        <d v="2021-01-11T00:00:00"/>
+        <d v="2021-01-15T00:00:00"/>
+        <d v="2021-01-18T00:00:00"/>
+        <d v="2021-01-20T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="15"/>
+    </cacheField>
+    <cacheField name="MÊS" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-06-01T00:00:00" maxDate="2021-01-21T00:00:00" count="11">
+        <d v="2020-06-01T00:00:00"/>
+        <d v="2020-07-05T00:00:00"/>
+        <d v="2020-08-15T00:00:00"/>
+        <d v="2020-12-20T00:00:00"/>
+        <d v="2021-01-02T00:00:00"/>
+        <d v="2021-01-05T00:00:00"/>
+        <d v="2021-01-08T00:00:00"/>
+        <d v="2021-01-11T00:00:00"/>
+        <d v="2021-01-15T00:00:00"/>
+        <d v="2021-01-18T00:00:00"/>
+        <d v="2021-01-20T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="12"/>
+    </cacheField>
+    <cacheField name="CATEGORIA" numFmtId="0">
+      <sharedItems count="16">
+        <s v="Banheiros"/>
+        <s v="Cozinhas e Área de Serviços"/>
+        <s v="Jardim e Lazer"/>
+        <s v="Decoração"/>
+        <s v="Climatização e Ventilação"/>
+        <s v="Iluminação"/>
+        <s v="Ferragens"/>
+        <s v="Materiais de Construção"/>
+        <s v="Ferramentas"/>
+        <s v="Materiais Elétricos"/>
+        <s v="Materiais Hidráulicos"/>
+        <s v="Portas"/>
+        <s v="Janelas"/>
+        <s v="Portões"/>
+        <s v="Pisos e Revestimentos"/>
+        <s v="Tintas e Acessórios"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PRODUTO" numFmtId="0">
+      <sharedItems count="102">
+        <s v="Aquecedor Elétrico Ponto"/>
+        <s v="Armário de Madeira"/>
+        <s v="Cesto de Roupa Plástico "/>
+        <s v="Chuveiro de Parede 250V (220V) Hiper Ducha"/>
+        <s v="Cooktop Gás 5 Bocas"/>
+        <s v="Cuba de Embutir"/>
+        <s v="Dispenser Sabonete Líquido"/>
+        <s v="Jogo de Tapete Plástico"/>
+        <s v="Lixeira de Banheiro Plástico Preto 5,4L Basculante"/>
+        <s v="Mictório Individual "/>
+        <s v="Porta Shampoo para Chão"/>
+        <s v="Torneira Temporizada Flex"/>
+        <s v="Arandela Externa ArtLuz"/>
+        <s v="Cera Acrílica Master"/>
+        <s v="Churrasqueira à Carvão Grill"/>
+        <s v="Detergente em Gel 1000ml Neutro"/>
+        <s v="Esguicho Regular Plástico"/>
+        <s v="Filtro de Barro 6L"/>
+        <s v="Mesa Madeira Dobrável"/>
+        <s v="Painel para Jardim Vertical"/>
+        <s v="Varal de Chão Aço com Abas"/>
+        <s v="Espelho Auto Adesivo Fixa"/>
+        <s v="Kit de Saches Provence"/>
+        <s v="Kit de Varão Aço Inspire"/>
+        <s v="Papel de Parede Floral"/>
+        <s v="Tapete Shaggy Cinza"/>
+        <s v="Ar Condicionado Split"/>
+        <s v="Base para Abajur Redondo"/>
+        <s v="Cordão de Luz LED"/>
+        <s v="Luminária Painel LED Ret"/>
+        <s v="Soquete p/ Lâmpada Fluorescente"/>
+        <s v="Soquete para Lâmpada "/>
+        <s v="Umidificador de Ambientes"/>
+        <s v="Ventilador de Teto 2 pás"/>
+        <s v="Aquecedor de Ambiente Cerâmico"/>
+        <s v="Aquecedor e Desumidificador"/>
+        <s v="Cabide 1 Gancho"/>
+        <s v="Cimento Comum Cinza 1Kg"/>
+        <s v="Cimento Queimado Verde 5Kg"/>
+        <s v="Coifa de Parede Frank"/>
+        <s v="Fecho Concha para Janelas Latão"/>
+        <s v="Gancho para Rede até 100Kg"/>
+        <s v="Parafusadeira 1/4&quot; "/>
+        <s v="Serra Circular para Madeira 24 dentes"/>
+        <s v="Serra de Mesa 10&quot;"/>
+        <s v="Trava para Armários "/>
+        <s v="Ventilador de Parede Ventisol"/>
+        <s v="Visor de Luz Prata"/>
+        <s v="Arame Recozido Bwg18 1 Kg "/>
+        <s v="Argamassa Acrílica Branca 5Kg"/>
+        <s v="Bancada de Alumínio Dobrável "/>
+        <s v="Cabo Flexível 1,5mm 50 mts verde"/>
+        <s v="Conduíte Corrugado 7 mts amarelo"/>
+        <s v="Conector Parafuso 6mm "/>
+        <s v="Eletrocalhas Curva 90º vertical externa"/>
+        <s v="Escada Doméstica 5 Degraus"/>
+        <s v="Fita Isolante Autofusão 10mts preto"/>
+        <s v="Forro em Lã de Vidro "/>
+        <s v="Ladrinho Hidráulico Flor de Liz 20x20"/>
+        <s v="Luva Algodão Coral Latex"/>
+        <s v="Selante Vedaflex Bisnaga 400g"/>
+        <s v="Trena Longa 50m"/>
+        <s v="Acabamento de registro grande cromado "/>
+        <s v="Conj. De tomada 10A branco"/>
+        <s v="Módulo de tomada de energia"/>
+        <s v="Placa com suporte 4x4 branco"/>
+        <s v="Torneira para banheiro mesa cromada"/>
+        <s v="Válvula de Escoamento para cozinha"/>
+        <s v="Adaptador para válvula"/>
+        <s v="Cesta para válvula "/>
+        <s v="Porta montada de giro de aço de 20 travas"/>
+        <s v="Porta montada de giro de aço pintado"/>
+        <s v="Ralo para pia metal "/>
+        <s v="Tampa para válvula"/>
+        <s v="Janela com proteção acústica e térmica"/>
+        <s v="Janela com proteção térmica de correr"/>
+        <s v="Janela proteção acústica e térmica, PVC vidro"/>
+        <s v="Porta montada com proteção térmica"/>
+        <s v="Porta montada de correr de alumínio"/>
+        <s v="Porta montada de giro de aço"/>
+        <s v="Porta Sanfonada de plástico PVC"/>
+        <s v="Portão de garagem basculante de madeira"/>
+        <s v="Portão social misto basculante metal"/>
+        <s v="Automatizador de portão "/>
+        <s v="Automatizador deslizante"/>
+        <s v="Kit decorado brilhante nuance"/>
+        <s v="Porcelanato esmaltado externo"/>
+        <s v="Porcelanato esmaltado modelo wood"/>
+        <s v="Portão de garagem basculante de metal"/>
+        <s v="Portão de garagem sanfonado"/>
+        <s v="Revestimento de parede acetinado"/>
+        <s v="Revestimento de parede brilhante branco"/>
+        <s v="Massa acrílica metalatex"/>
+        <s v="Pastilha azul vidro real piscina"/>
+        <s v="Pincel para madeira"/>
+        <s v="Refil Rolo para Parede Rugosa 22cm"/>
+        <s v="Revestimento marmorizado brilhante"/>
+        <s v="Rolo para Parede 23 cm Pele de Carne"/>
+        <s v="Spray plástico bege"/>
+        <s v="Tinta acrílica decorada"/>
+        <s v="Tinta acrílica fosco "/>
+        <s v="Tinta acrílica semibrilho"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="QUANT." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="80"/>
+    </cacheField>
+    <cacheField name="VENDEDORES" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Alan de Souza"/>
+        <s v="Karen Mello"/>
+        <s v="Marcos Alves"/>
+        <s v="Daniella Juizo"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CLIENTES" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Central Show Room"/>
+        <s v="New House Store"/>
+        <s v="Mega Store Lins"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CIDADES" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Montenegro"/>
+        <s v="Novo Hamburgo"/>
+        <s v="São Leopoldo"/>
+        <s v="Canoas"/>
+        <s v="Porto Alegre"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PREÇO UNITÁRIO" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="4500"/>
+    </cacheField>
+    <cacheField name="PREÇO TOTAL" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.37" maxValue="9350"/>
+    </cacheField>
+    <cacheField name="Meses (MÊS)" numFmtId="0" databaseField="0">
+      <fieldGroup base="1">
+        <rangePr groupBy="months" startDate="2020-06-01T00:00:00" endDate="2021-01-21T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;01/06/2020"/>
+          <s v="jan"/>
+          <s v="fev"/>
+          <s v="mar"/>
+          <s v="abr"/>
+          <s v="mai"/>
+          <s v="jun"/>
+          <s v="jul"/>
+          <s v="ago"/>
+          <s v="set"/>
+          <s v="out"/>
+          <s v="nov"/>
+          <s v="dez"/>
+          <s v="&gt;21/01/2021"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Trimestres (MÊS)" numFmtId="0" databaseField="0">
+      <fieldGroup base="1">
+        <rangePr groupBy="quarters" startDate="2020-06-01T00:00:00" endDate="2021-01-21T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;01/06/2020"/>
+          <s v="Trim1"/>
+          <s v="Trim2"/>
+          <s v="Trim3"/>
+          <s v="Trim4"/>
+          <s v="&gt;21/01/2021"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Anos (MÊS)" numFmtId="0" databaseField="0">
+      <fieldGroup base="1">
+        <rangePr groupBy="years" startDate="2020-06-01T00:00:00" endDate="2021-01-21T00:00:00"/>
+        <groupItems count="4">
+          <s v="&lt;01/06/2020"/>
+          <s v="2020"/>
+          <s v="2021"/>
+          <s v="&gt;21/01/2021"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Meses (DATA DO PEDIDO)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2020-06-01T00:00:00" endDate="2021-01-21T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;01/06/2020"/>
+          <s v="jan"/>
+          <s v="fev"/>
+          <s v="mar"/>
+          <s v="abr"/>
+          <s v="mai"/>
+          <s v="jun"/>
+          <s v="jul"/>
+          <s v="ago"/>
+          <s v="set"/>
+          <s v="out"/>
+          <s v="nov"/>
+          <s v="dez"/>
+          <s v="&gt;21/01/2021"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Trimestres (DATA DO PEDIDO)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="quarters" startDate="2020-06-01T00:00:00" endDate="2021-01-21T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;01/06/2020"/>
+          <s v="Trim1"/>
+          <s v="Trim2"/>
+          <s v="Trim3"/>
+          <s v="Trim4"/>
+          <s v="&gt;21/01/2021"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Anos (DATA DO PEDIDO)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="years" startDate="2020-06-01T00:00:00" endDate="2021-01-21T00:00:00"/>
+        <groupItems count="4">
+          <s v="&lt;01/06/2020"/>
+          <s v="2020"/>
+          <s v="2021"/>
+          <s v="&gt;21/01/2021"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="103">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="115.9"/>
+    <n v="2086.2000000000003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="320.89999999999998"/>
+    <n v="2567.1999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="26.9"/>
+    <n v="591.79999999999995"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="72"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="55.9"/>
+    <n v="4024.7999999999997"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1150"/>
+    <n v="9200"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="95.5"/>
+    <n v="1432.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="68.5"/>
+    <n v="1712.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="94.9"/>
+    <n v="3321.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="60"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23.9"/>
+    <n v="1434"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="220.5"/>
+    <n v="1102.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="80"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50.9"/>
+    <n v="4072"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="420.9"/>
+    <n v="2104.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="12"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="72.900000000000006"/>
+    <n v="583.20000000000005"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="120"/>
+    <n v="1320"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="245.5"/>
+    <n v="3191.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="15"/>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.5"/>
+    <n v="139.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="22"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="9.9"/>
+    <n v="217.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="150"/>
+    <n v="2250"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="18"/>
+    <n v="17"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="550"/>
+    <n v="9350"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="19"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="95.9"/>
+    <n v="1534.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="20"/>
+    <n v="32"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="175.9"/>
+    <n v="5628.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="21"/>
+    <n v="17"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="92.9"/>
+    <n v="1579.3000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="22"/>
+    <n v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="37.9"/>
+    <n v="416.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="23"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="79.900000000000006"/>
+    <n v="319.60000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="24"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="365"/>
+    <n v="1825"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="25"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="380"/>
+    <n v="3040"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="26"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="350"/>
+    <n v="3500"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="27"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="129.9"/>
+    <n v="1948.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="28"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="180"/>
+    <n v="1080"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="29"/>
+    <n v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="565"/>
+    <n v="7345"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="30"/>
+    <n v="12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4.5999999999999996"/>
+    <n v="55.199999999999996"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="31"/>
+    <n v="25"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5.2"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="32"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="82.9"/>
+    <n v="414.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="33"/>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="220"/>
+    <n v="880"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="34"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="340"/>
+    <n v="2720"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="35"/>
+    <n v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="150"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="36"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="75.900000000000006"/>
+    <n v="379.5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="37"/>
+    <n v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1.79"/>
+    <n v="5.37"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="38"/>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="35.9"/>
+    <n v="71.8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="39"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="950"/>
+    <n v="1900"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="40"/>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="52.9"/>
+    <n v="105.8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="41"/>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="9.9"/>
+    <n v="19.8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="42"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="520"/>
+    <n v="2600"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="43"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="39.9"/>
+    <n v="359.09999999999997"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="44"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="830"/>
+    <n v="4980"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="45"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="25.9"/>
+    <n v="25.9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="46"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="260"/>
+    <n v="780"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="47"/>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="65.900000000000006"/>
+    <n v="131.80000000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="48"/>
+    <n v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="9.5"/>
+    <n v="47.5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="49"/>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="42.5"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="50"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="325.89999999999998"/>
+    <n v="3910.7999999999997"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="51"/>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="32.9"/>
+    <n v="131.6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="52"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="24.9"/>
+    <n v="124.5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="53"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="16.5"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="54"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="15.2"/>
+    <n v="121.6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="55"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="119.9"/>
+    <n v="1798.5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="56"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="18.899999999999999"/>
+    <n v="94.5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="57"/>
+    <n v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="28"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="58"/>
+    <n v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="16.399999999999999"/>
+    <n v="49.199999999999996"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="59"/>
+    <n v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="10.59"/>
+    <n v="74.13"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="60"/>
+    <n v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="29.9"/>
+    <n v="179.39999999999998"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="61"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="68.900000000000006"/>
+    <n v="344.5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="10"/>
+    <x v="62"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="47.5"/>
+    <n v="190"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="9"/>
+    <x v="63"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="7.55"/>
+    <n v="15.1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="9"/>
+    <x v="64"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="11.5"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="9"/>
+    <x v="65"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="8.69"/>
+    <n v="17.38"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="10"/>
+    <x v="66"/>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="35.5"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="10"/>
+    <x v="67"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="95.6"/>
+    <n v="382.4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="10"/>
+    <x v="68"/>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="10"/>
+    <x v="69"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="32.5"/>
+    <n v="260"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="11"/>
+    <x v="70"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="4500"/>
+    <n v="9000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="11"/>
+    <x v="71"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3500"/>
+    <n v="7000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="10"/>
+    <x v="72"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="15.5"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="10"/>
+    <x v="73"/>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.5"/>
+    <n v="13.5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="74"/>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3500"/>
+    <n v="7000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="75"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="950"/>
+    <n v="3800"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="76"/>
+    <n v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1520"/>
+    <n v="4560"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="77"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1850"/>
+    <n v="3700"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="78"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="3100"/>
+    <n v="6200"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="79"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1100"/>
+    <n v="2200"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="80"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="205"/>
+    <n v="410"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="13"/>
+    <x v="81"/>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1850"/>
+    <n v="3700"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="13"/>
+    <x v="82"/>
+    <n v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="799"/>
+    <n v="2397"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="83"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="650"/>
+    <n v="650"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="84"/>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="540"/>
+    <n v="1080"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="14"/>
+    <x v="85"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="120"/>
+    <n v="240"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="14"/>
+    <x v="86"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="35"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="14"/>
+    <x v="87"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="51.9"/>
+    <n v="103.8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="88"/>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1950"/>
+    <n v="3900"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="89"/>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="950"/>
+    <n v="1900"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="14"/>
+    <x v="90"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="35.799999999999997"/>
+    <n v="35.799999999999997"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="14"/>
+    <x v="91"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="44.9"/>
+    <n v="44.9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="14"/>
+    <x v="58"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="35"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="92"/>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="16.8"/>
+    <n v="67.2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="14"/>
+    <x v="93"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="23.5"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="94"/>
+    <n v="5"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="18"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="95"/>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="15"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="14"/>
+    <x v="96"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="79.900000000000006"/>
+    <n v="159.80000000000001"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="97"/>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="22"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="98"/>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="29"/>
+    <n v="116"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="99"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="100"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="100"/>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="41"/>
+    <n v="451"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="101"/>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="85"/>
+    <n v="340"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81DCF94D-65AF-4408-9995-1CB6D18BFE17}" name="Tabela dinâmica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="B10:C27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de PREÇO TOTAL" fld="9" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{228468F2-EEE7-4C6D-BE58-C019E128ACF6}" name="Tabela dinâmica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="B10:C130" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="103">
+        <item x="62"/>
+        <item x="68"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="12"/>
+        <item x="49"/>
+        <item x="1"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="50"/>
+        <item x="27"/>
+        <item x="36"/>
+        <item x="51"/>
+        <item x="13"/>
+        <item x="69"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="63"/>
+        <item x="4"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="40"/>
+        <item x="17"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="41"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="7"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="85"/>
+        <item x="58"/>
+        <item x="8"/>
+        <item x="29"/>
+        <item x="59"/>
+        <item x="92"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="64"/>
+        <item x="19"/>
+        <item x="24"/>
+        <item x="42"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="65"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="80"/>
+        <item x="10"/>
+        <item x="81"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="72"/>
+        <item x="95"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="60"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="98"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="66"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="61"/>
+        <item x="32"/>
+        <item x="67"/>
+        <item x="20"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="120">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="54"/>
+    </i>
+    <i r="1">
+      <x v="70"/>
+    </i>
+    <i r="1">
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="96"/>
+    </i>
+    <i r="1">
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="57"/>
+    </i>
+    <i r="1">
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="94"/>
+    </i>
+    <i r="1">
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x v="82"/>
+    </i>
+    <i r="1">
+      <x v="83"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x v="84"/>
+    </i>
+    <i r="1">
+      <x v="85"/>
+    </i>
+    <i r="1">
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="75"/>
+    </i>
+    <i r="1">
+      <x v="87"/>
+    </i>
+    <i r="1">
+      <x v="92"/>
+    </i>
+    <i r="1">
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="59"/>
+    </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="67"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="71"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
+    </i>
+    <i r="1">
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="60"/>
+    </i>
+    <i r="1">
+      <x v="76"/>
+    </i>
+    <i r="1">
+      <x v="80"/>
+    </i>
+    <i r="1">
+      <x v="86"/>
+    </i>
+    <i r="1">
+      <x v="89"/>
+    </i>
+    <i r="1">
+      <x v="90"/>
+    </i>
+    <i r="1">
+      <x v="91"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de PREÇO TOTAL" fld="9" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7656025F-C7F4-4A15-9312-C4259BE64D1D}" name="Tabela dinâmica3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="B13:F30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="103">
+        <item x="62"/>
+        <item x="68"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="12"/>
+        <item x="49"/>
+        <item x="1"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="50"/>
+        <item x="27"/>
+        <item x="36"/>
+        <item x="51"/>
+        <item x="13"/>
+        <item x="69"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="63"/>
+        <item x="4"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="40"/>
+        <item x="17"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="41"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="7"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="85"/>
+        <item x="58"/>
+        <item x="8"/>
+        <item x="29"/>
+        <item x="59"/>
+        <item x="92"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="64"/>
+        <item x="19"/>
+        <item x="24"/>
+        <item x="42"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="65"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="80"/>
+        <item x="10"/>
+        <item x="81"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="72"/>
+        <item x="95"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="60"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="98"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="66"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="61"/>
+        <item x="32"/>
+        <item x="67"/>
+        <item x="20"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Soma de QUANT." fld="4" baseField="2" baseItem="0"/>
+    <dataField name="Média de PREÇO TOTAL" fld="9" subtotal="average" baseField="2" baseItem="0" numFmtId="44"/>
+    <dataField name="Soma de PREÇO TOTAL" fld="9" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Soma de PREÇO TOTAL2" fld="9" baseField="2" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C68B43F-305E-431B-8A51-F73A09FFB4F1}" name="Tabela dinâmica6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="B15:F43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="103">
+        <item x="62"/>
+        <item x="68"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="12"/>
+        <item x="49"/>
+        <item x="1"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="50"/>
+        <item x="27"/>
+        <item x="36"/>
+        <item x="51"/>
+        <item x="13"/>
+        <item x="69"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="63"/>
+        <item x="4"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="40"/>
+        <item x="17"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="41"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="7"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="85"/>
+        <item x="58"/>
+        <item x="8"/>
+        <item x="29"/>
+        <item x="59"/>
+        <item x="92"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="64"/>
+        <item x="19"/>
+        <item x="24"/>
+        <item x="42"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="65"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="80"/>
+        <item x="10"/>
+        <item x="81"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="72"/>
+        <item x="95"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="60"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="98"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="66"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="61"/>
+        <item x="32"/>
+        <item x="67"/>
+        <item x="20"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Soma de QUANT." fld="4" baseField="2" baseItem="0"/>
+    <dataField name="Média de PREÇO TOTAL" fld="9" subtotal="average" baseField="2" baseItem="0" numFmtId="44"/>
+    <dataField name="Soma de PREÇO TOTAL" fld="9" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Soma de PREÇO TOTAL2" fld="9" baseField="2" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCEDB71A-9CAC-4260-A8B3-55D99AF0E74A}" name="Tabela dinâmica7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="B15:G19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="103">
+        <item x="62"/>
+        <item x="68"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="12"/>
+        <item x="49"/>
+        <item x="1"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="50"/>
+        <item x="27"/>
+        <item x="36"/>
+        <item x="51"/>
+        <item x="13"/>
+        <item x="69"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="63"/>
+        <item x="4"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="40"/>
+        <item x="17"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="41"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="7"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="85"/>
+        <item x="58"/>
+        <item x="8"/>
+        <item x="29"/>
+        <item x="59"/>
+        <item x="92"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="64"/>
+        <item x="19"/>
+        <item x="24"/>
+        <item x="42"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="65"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="80"/>
+        <item x="10"/>
+        <item x="81"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="72"/>
+        <item x="95"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="60"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="98"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="66"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="61"/>
+        <item x="32"/>
+        <item x="67"/>
+        <item x="20"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="12"/>
+    <field x="11"/>
+    <field x="10"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de PREÇO TOTAL" fld="9" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B608088-2010-4981-A94E-FBC6310FCDF1}" name="Tabela dinâmica8" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="B14:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="103">
+        <item x="62"/>
+        <item x="68"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="12"/>
+        <item x="49"/>
+        <item x="1"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="50"/>
+        <item x="27"/>
+        <item x="36"/>
+        <item x="51"/>
+        <item x="13"/>
+        <item x="69"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="63"/>
+        <item x="4"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="40"/>
+        <item x="17"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="41"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="7"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="85"/>
+        <item x="58"/>
+        <item x="8"/>
+        <item x="29"/>
+        <item x="59"/>
+        <item x="92"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="64"/>
+        <item x="19"/>
+        <item x="24"/>
+        <item x="42"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="65"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="80"/>
+        <item x="10"/>
+        <item x="81"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="72"/>
+        <item x="95"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="60"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="98"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="66"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="61"/>
+        <item x="32"/>
+        <item x="67"/>
+        <item x="20"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="13"/>
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de PREÇO TOTAL" fld="9" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{322D8055-B3C6-4117-BA88-875E95BD43D8}" name="Tabela dinâmica9" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="B18:G22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="103">
+        <item x="62"/>
+        <item x="68"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="12"/>
+        <item x="49"/>
+        <item x="1"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="50"/>
+        <item x="27"/>
+        <item x="36"/>
+        <item x="51"/>
+        <item x="13"/>
+        <item x="69"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="63"/>
+        <item x="4"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="40"/>
+        <item x="17"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="41"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="7"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="85"/>
+        <item x="58"/>
+        <item x="8"/>
+        <item x="29"/>
+        <item x="59"/>
+        <item x="92"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="64"/>
+        <item x="19"/>
+        <item x="24"/>
+        <item x="42"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="65"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="80"/>
+        <item x="10"/>
+        <item x="81"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="72"/>
+        <item x="95"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="60"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="98"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="66"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="61"/>
+        <item x="32"/>
+        <item x="67"/>
+        <item x="20"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Média de PREÇO TOTAL" fld="9" subtotal="average" baseField="6" baseItem="0" numFmtId="44"/>
+    <dataField name="Soma de PREÇO TOTAL4" fld="9" showDataAs="percentOfTotal" baseField="6" baseItem="0" numFmtId="10"/>
+    <dataField name="Mín. de PREÇO TOTAL5" fld="9" subtotal="min" baseField="6" baseItem="0" numFmtId="44"/>
+    <dataField name="Máx. de PREÇO TOTAL2" fld="9" subtotal="max" baseField="6" baseItem="0" numFmtId="44"/>
+    <dataField name="Soma de PREÇO TOTAL3" fld="9" baseField="6" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1589,63 +5745,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="B8:K111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="7"/>
       <c r="F3" s="12"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +5833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="19">
         <v>43983</v>
       </c>
@@ -1711,7 +5867,7 @@
         <v>2086.2000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="19">
         <v>43983</v>
       </c>
@@ -1745,7 +5901,7 @@
         <v>2567.1999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="19">
         <v>43983</v>
       </c>
@@ -1779,7 +5935,7 @@
         <v>591.79999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="19">
         <v>43983</v>
       </c>
@@ -1813,7 +5969,7 @@
         <v>4024.7999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="19">
         <v>43983</v>
       </c>
@@ -1847,7 +6003,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="19">
         <v>43983</v>
       </c>
@@ -1881,7 +6037,7 @@
         <v>1432.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="19">
         <v>43983</v>
       </c>
@@ -1915,7 +6071,7 @@
         <v>1712.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="19">
         <v>43983</v>
       </c>
@@ -1949,7 +6105,7 @@
         <v>3321.5</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="19">
         <v>43983</v>
       </c>
@@ -1983,7 +6139,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="19">
         <v>43983</v>
       </c>
@@ -2017,7 +6173,7 @@
         <v>1102.5</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="19">
         <v>43983</v>
       </c>
@@ -2051,7 +6207,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="19">
         <v>43983</v>
       </c>
@@ -2085,7 +6241,7 @@
         <v>2104.5</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="19">
         <v>44017</v>
       </c>
@@ -2119,7 +6275,7 @@
         <v>583.20000000000005</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="19">
         <v>44017</v>
       </c>
@@ -2153,7 +6309,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="19">
         <v>44017</v>
       </c>
@@ -2187,7 +6343,7 @@
         <v>3191.5</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="19">
         <v>44017</v>
       </c>
@@ -2221,7 +6377,7 @@
         <v>139.5</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="19">
         <v>44017</v>
       </c>
@@ -2255,7 +6411,7 @@
         <v>217.8</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="19">
         <v>44017</v>
       </c>
@@ -2289,7 +6445,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="19">
         <v>44017</v>
       </c>
@@ -2323,7 +6479,7 @@
         <v>9350</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="19">
         <v>44017</v>
       </c>
@@ -2357,7 +6513,7 @@
         <v>1534.4</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="19">
         <v>44017</v>
       </c>
@@ -2391,7 +6547,7 @@
         <v>5628.8</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="19">
         <v>44058</v>
       </c>
@@ -2425,7 +6581,7 @@
         <v>1579.3000000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="19">
         <v>44058</v>
       </c>
@@ -2459,7 +6615,7 @@
         <v>416.9</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="19">
         <v>44058</v>
       </c>
@@ -2493,7 +6649,7 @@
         <v>319.60000000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="19">
         <v>44058</v>
       </c>
@@ -2527,7 +6683,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="19">
         <v>44058</v>
       </c>
@@ -2561,7 +6717,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="19">
         <v>44185</v>
       </c>
@@ -2595,7 +6751,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="19">
         <v>44185</v>
       </c>
@@ -2629,7 +6785,7 @@
         <v>1948.5</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="19">
         <v>44185</v>
       </c>
@@ -2663,7 +6819,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="19">
         <v>44185</v>
       </c>
@@ -2697,7 +6853,7 @@
         <v>7345</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="19">
         <v>44185</v>
       </c>
@@ -2731,7 +6887,7 @@
         <v>55.199999999999996</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="19">
         <v>44185</v>
       </c>
@@ -2765,7 +6921,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="19">
         <v>44185</v>
       </c>
@@ -2799,7 +6955,7 @@
         <v>414.5</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="19">
         <v>44185</v>
       </c>
@@ -2833,7 +6989,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="19">
         <v>44198</v>
       </c>
@@ -2867,7 +7023,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="19">
         <v>44198</v>
       </c>
@@ -2901,7 +7057,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="19">
         <v>44198</v>
       </c>
@@ -2935,7 +7091,7 @@
         <v>379.5</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="19">
         <v>44198</v>
       </c>
@@ -2969,7 +7125,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="19">
         <v>44198</v>
       </c>
@@ -3003,7 +7159,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="19">
         <v>44198</v>
       </c>
@@ -3037,7 +7193,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="19">
         <v>44198</v>
       </c>
@@ -3071,7 +7227,7 @@
         <v>105.8</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="19">
         <v>44198</v>
       </c>
@@ -3105,7 +7261,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="19">
         <v>44198</v>
       </c>
@@ -3139,7 +7295,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="19">
         <v>44198</v>
       </c>
@@ -3173,7 +7329,7 @@
         <v>359.09999999999997</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="19">
         <v>44198</v>
       </c>
@@ -3207,7 +7363,7 @@
         <v>4980</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="19">
         <v>44198</v>
       </c>
@@ -3241,7 +7397,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="19">
         <v>44198</v>
       </c>
@@ -3275,7 +7431,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="19">
         <v>44198</v>
       </c>
@@ -3309,7 +7465,7 @@
         <v>131.80000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="19">
         <v>44201</v>
       </c>
@@ -3343,7 +7499,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="19">
         <v>44201</v>
       </c>
@@ -3377,7 +7533,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="19">
         <v>44201</v>
       </c>
@@ -3411,7 +7567,7 @@
         <v>3910.7999999999997</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="19">
         <v>44201</v>
       </c>
@@ -3445,7 +7601,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="19">
         <v>44201</v>
       </c>
@@ -3479,7 +7635,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="19">
         <v>44201</v>
       </c>
@@ -3513,7 +7669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="19">
         <v>44201</v>
       </c>
@@ -3547,7 +7703,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="19">
         <v>44201</v>
       </c>
@@ -3581,7 +7737,7 @@
         <v>1798.5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="19">
         <v>44201</v>
       </c>
@@ -3615,7 +7771,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="19">
         <v>44201</v>
       </c>
@@ -3649,7 +7805,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="19">
         <v>44201</v>
       </c>
@@ -3683,7 +7839,7 @@
         <v>49.199999999999996</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="19">
         <v>44201</v>
       </c>
@@ -3717,7 +7873,7 @@
         <v>74.13</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="19">
         <v>44201</v>
       </c>
@@ -3751,7 +7907,7 @@
         <v>179.39999999999998</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="19">
         <v>44201</v>
       </c>
@@ -3785,7 +7941,7 @@
         <v>344.5</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="19">
         <v>44204</v>
       </c>
@@ -3819,7 +7975,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="19">
         <v>44204</v>
       </c>
@@ -3853,7 +8009,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="19">
         <v>44204</v>
       </c>
@@ -3887,7 +8043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="19">
         <v>44204</v>
       </c>
@@ -3921,7 +8077,7 @@
         <v>17.38</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="19">
         <v>44204</v>
       </c>
@@ -3955,7 +8111,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="19">
         <v>44204</v>
       </c>
@@ -3989,7 +8145,7 @@
         <v>382.4</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="19">
         <v>44207</v>
       </c>
@@ -4023,7 +8179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="19">
         <v>44207</v>
       </c>
@@ -4057,7 +8213,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="19">
         <v>44207</v>
       </c>
@@ -4091,7 +8247,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="19">
         <v>44207</v>
       </c>
@@ -4125,7 +8281,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="19">
         <v>44207</v>
       </c>
@@ -4159,7 +8315,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="19">
         <v>44207</v>
       </c>
@@ -4193,7 +8349,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="19">
         <v>44211</v>
       </c>
@@ -4227,7 +8383,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="19">
         <v>44211</v>
       </c>
@@ -4261,7 +8417,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="19">
         <v>44211</v>
       </c>
@@ -4295,7 +8451,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="19">
         <v>44211</v>
       </c>
@@ -4329,7 +8485,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B87" s="19">
         <v>44211</v>
       </c>
@@ -4363,7 +8519,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="19">
         <v>44211</v>
       </c>
@@ -4397,7 +8553,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="19">
         <v>44211</v>
       </c>
@@ -4431,7 +8587,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="19">
         <v>44211</v>
       </c>
@@ -4465,7 +8621,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B91" s="19">
         <v>44211</v>
       </c>
@@ -4499,7 +8655,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" s="19">
         <v>44214</v>
       </c>
@@ -4533,7 +8689,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="19">
         <v>44214</v>
       </c>
@@ -4567,7 +8723,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="19">
         <v>44214</v>
       </c>
@@ -4601,7 +8757,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="19">
         <v>44214</v>
       </c>
@@ -4635,7 +8791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B96" s="19">
         <v>44214</v>
       </c>
@@ -4669,7 +8825,7 @@
         <v>103.8</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" s="19">
         <v>44214</v>
       </c>
@@ -4703,7 +8859,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" s="19">
         <v>44214</v>
       </c>
@@ -4737,7 +8893,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B99" s="19">
         <v>44214</v>
       </c>
@@ -4771,7 +8927,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B100" s="19">
         <v>44214</v>
       </c>
@@ -4805,7 +8961,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B101" s="19">
         <v>44216</v>
       </c>
@@ -4839,7 +8995,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B102" s="19">
         <v>44216</v>
       </c>
@@ -4873,7 +9029,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" s="19">
         <v>44216</v>
       </c>
@@ -4907,7 +9063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B104" s="19">
         <v>44216</v>
       </c>
@@ -4941,7 +9097,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B105" s="19">
         <v>44216</v>
       </c>
@@ -4975,7 +9131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B106" s="19">
         <v>44216</v>
       </c>
@@ -5009,7 +9165,7 @@
         <v>159.80000000000001</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B107" s="19">
         <v>44216</v>
       </c>
@@ -5043,7 +9199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="19">
         <v>44216</v>
       </c>
@@ -5077,7 +9233,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="19">
         <v>44216</v>
       </c>
@@ -5111,7 +9267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="19">
         <v>44216</v>
       </c>
@@ -5145,7 +9301,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" s="19">
         <v>44216</v>
       </c>
@@ -5190,117 +9346,216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C3CE38-91BE-4CB2-9694-DD6FFB59F331}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="7"/>
       <c r="F3" s="12"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>147</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C24"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="31">
+        <v>21882.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="31">
+        <v>11264.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="31">
+        <v>21105.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="31">
+        <v>7180.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="31">
+        <v>6372.0999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="31">
+        <v>8357.73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="31">
+        <v>11438.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="31">
+        <v>15360</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="31">
+        <v>14876.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="31">
+        <v>578.27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="31">
+        <v>560.68000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="31">
+        <v>987.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="31">
+        <v>736.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="31">
+        <v>28510</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="31">
+        <v>13627</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1312.2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="31">
+        <v>164150.88</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5312,117 +9567,1040 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F9A61E-55DB-47FA-A51C-ADB805713931}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B14" sqref="B10:C130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="7"/>
       <c r="F3" s="12"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>147</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C24"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="31">
+        <v>21882.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="31">
+        <v>2086.2000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="31">
+        <v>591.79999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="31">
+        <v>4024.7999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="31">
+        <v>1432.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1712.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="31">
+        <v>3321.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="31">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="31">
+        <v>1102.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="31">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="31">
+        <v>2104.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="31">
+        <v>11264.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="31">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="31">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="31">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="31">
+        <v>414.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="31">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="31">
+        <v>21105.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="31">
+        <v>2567.1999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="31">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="31">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="31">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="31">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="31">
+        <v>5628.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="31">
+        <v>7180.8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="31">
+        <v>1579.3000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="31">
+        <v>416.9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="31">
+        <v>319.60000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="31">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="31">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="31">
+        <v>6372.0999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="31">
+        <v>3910.7999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="31">
+        <v>379.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="31">
+        <v>1798.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="31">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="31">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="31">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="31">
+        <v>131.80000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="31">
+        <v>8357.73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="31">
+        <v>74.13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="31">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="31">
+        <v>359.09999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="31">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="31">
+        <v>344.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="31">
+        <v>11438.7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="31">
+        <v>1948.5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="31">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="31">
+        <v>7345</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="31">
+        <v>55.199999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="31">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="31">
+        <v>15360</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="31">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="31">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="31">
+        <v>14876.9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="31">
+        <v>583.20000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="31">
+        <v>3191.5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="31">
+        <v>217.8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="31">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="31">
+        <v>1534.4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="31">
+        <v>578.27</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="31">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="31">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="31">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="31">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="31">
+        <v>49.199999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="31">
+        <v>179.39999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="31">
+        <v>560.68000000000006</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="31">
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="31">
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="31">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="31">
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="31">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="31">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="31">
+        <v>987.9</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="31">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="31">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="31">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="31">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="31">
+        <v>382.4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="31">
+        <v>736.3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="31">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C100" s="31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="31">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" s="31">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="31">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="31">
+        <v>159.80000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="31">
+        <v>28510</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" s="31">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="31">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="31">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="31">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="31">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="31">
+        <v>13627</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115" s="31">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" s="31">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" s="31">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="31">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" s="31">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="31">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121" s="31">
+        <v>1312.2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B122" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" s="31">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B123" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" s="31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B124" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124" s="31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B125" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125" s="31">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B126" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126" s="31">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B127" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C127" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" s="31">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="31">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C130" s="31">
+        <v>164150.88000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5434,126 +10612,708 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70A6A24-CE34-41F6-85E8-18779345FB59}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D17" sqref="B13:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="7"/>
       <c r="F3" s="12"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>154</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>153</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>156</v>
       </c>
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>155</v>
       </c>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C24"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="33">
+        <v>337</v>
+      </c>
+      <c r="D14" s="31">
+        <v>2188.23</v>
+      </c>
+      <c r="E14" s="34">
+        <v>0.13330601700094447</v>
+      </c>
+      <c r="F14" s="31">
+        <v>21882.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="33">
+        <v>41</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1877.4166666666667</v>
+      </c>
+      <c r="E15" s="34">
+        <v>6.8622842594569078E-2</v>
+      </c>
+      <c r="F15" s="31">
+        <v>11264.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="33">
+        <v>83</v>
+      </c>
+      <c r="D16" s="31">
+        <v>3517.5833333333335</v>
+      </c>
+      <c r="E16" s="34">
+        <v>0.12857378528826646</v>
+      </c>
+      <c r="F16" s="31">
+        <v>21105.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="33">
+        <v>45</v>
+      </c>
+      <c r="D17" s="31">
+        <v>1436.16</v>
+      </c>
+      <c r="E17" s="34">
+        <v>4.374512034294302E-2</v>
+      </c>
+      <c r="F17" s="31">
+        <v>7180.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="33">
+        <v>39</v>
+      </c>
+      <c r="D18" s="31">
+        <v>910.3</v>
+      </c>
+      <c r="E18" s="34">
+        <v>3.8818555221878784E-2</v>
+      </c>
+      <c r="F18" s="31">
+        <v>6372.0999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="33">
+        <v>32</v>
+      </c>
+      <c r="D19" s="31">
+        <v>1671.5459999999998</v>
+      </c>
+      <c r="E19" s="34">
+        <v>5.0914926560247487E-2</v>
+      </c>
+      <c r="F19" s="31">
+        <v>8357.73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="33">
+        <v>75</v>
+      </c>
+      <c r="D20" s="31">
+        <v>1906.45</v>
+      </c>
+      <c r="E20" s="34">
+        <v>6.9684061395223706E-2</v>
+      </c>
+      <c r="F20" s="31">
+        <v>11438.7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="33">
+        <v>9</v>
+      </c>
+      <c r="D21" s="31">
+        <v>5120</v>
+      </c>
+      <c r="E21" s="34">
+        <v>9.3572449931428922E-2</v>
+      </c>
+      <c r="F21" s="31">
+        <v>15360</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="33">
+        <v>76</v>
+      </c>
+      <c r="D22" s="31">
+        <v>2975.38</v>
+      </c>
+      <c r="E22" s="34">
+        <v>9.0629425806306951E-2</v>
+      </c>
+      <c r="F22" s="31">
+        <v>14876.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="33">
+        <v>26</v>
+      </c>
+      <c r="D23" s="31">
+        <v>82.61</v>
+      </c>
+      <c r="E23" s="34">
+        <v>3.5227956134015236E-3</v>
+      </c>
+      <c r="F23" s="31">
+        <v>578.27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="33">
+        <v>30</v>
+      </c>
+      <c r="D24" s="31">
+        <v>70.085000000000008</v>
+      </c>
+      <c r="E24" s="34">
+        <v>3.4156381007521856E-3</v>
+      </c>
+      <c r="F24" s="31">
+        <v>560.68000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="33">
+        <v>40</v>
+      </c>
+      <c r="D25" s="31">
+        <v>141.12857142857143</v>
+      </c>
+      <c r="E25" s="34">
+        <v>6.0182437035975669E-3</v>
+      </c>
+      <c r="F25" s="31">
+        <v>987.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="33">
+        <v>13</v>
+      </c>
+      <c r="D26" s="31">
+        <v>92.037499999999994</v>
+      </c>
+      <c r="E26" s="34">
+        <v>4.4855074794603583E-3</v>
+      </c>
+      <c r="F26" s="31">
+        <v>736.3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="33">
+        <v>12</v>
+      </c>
+      <c r="D27" s="31">
+        <v>4751.666666666667</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0.17368167627246345</v>
+      </c>
+      <c r="F27" s="31">
+        <v>28510</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="33">
+        <v>12</v>
+      </c>
+      <c r="D28" s="31">
+        <v>2271.1666666666665</v>
+      </c>
+      <c r="E28" s="34">
+        <v>8.3015089532264441E-2</v>
+      </c>
+      <c r="F28" s="31">
+        <v>13627</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="33">
+        <v>37</v>
+      </c>
+      <c r="D29" s="31">
+        <v>164.02500000000001</v>
+      </c>
+      <c r="E29" s="34">
+        <v>7.9938651562513688E-3</v>
+      </c>
+      <c r="F29" s="31">
+        <v>1312.2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="33">
+        <v>907</v>
+      </c>
+      <c r="D30" s="31">
+        <v>1593.6978640776701</v>
+      </c>
+      <c r="E30" s="34">
+        <v>1</v>
+      </c>
+      <c r="F30" s="31">
+        <v>164150.88000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5565,129 +11325,600 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A328F8A8-FCAE-4A47-B8AA-F026113E0477}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="7"/>
       <c r="F3" s="12"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>157</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>154</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>153</v>
       </c>
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>156</v>
       </c>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>155</v>
       </c>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C24"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="33">
+        <v>437</v>
+      </c>
+      <c r="D16" s="31">
+        <v>1560.5082142857148</v>
+      </c>
+      <c r="E16" s="34">
+        <v>0.26618334303172786</v>
+      </c>
+      <c r="F16" s="31">
+        <v>43694.23000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="33">
+        <v>337</v>
+      </c>
+      <c r="D17" s="31">
+        <v>2188.23</v>
+      </c>
+      <c r="E17" s="34">
+        <v>0.13330601700094444</v>
+      </c>
+      <c r="F17" s="31">
+        <v>21882.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="33">
+        <v>31</v>
+      </c>
+      <c r="D18" s="31">
+        <v>4672.4000000000005</v>
+      </c>
+      <c r="E18" s="34">
+        <v>8.5392170910079765E-2</v>
+      </c>
+      <c r="F18" s="31">
+        <v>14017.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="33">
+        <v>32</v>
+      </c>
+      <c r="D19" s="31">
+        <v>2029.5999999999997</v>
+      </c>
+      <c r="E19" s="34">
+        <v>3.7092703980630484E-2</v>
+      </c>
+      <c r="F19" s="31">
+        <v>6088.7999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="33">
+        <v>12</v>
+      </c>
+      <c r="D20" s="31">
+        <v>209.315</v>
+      </c>
+      <c r="E20" s="34">
+        <v>2.5502756975777398E-3</v>
+      </c>
+      <c r="F20" s="31">
+        <v>418.63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="33">
+        <v>13</v>
+      </c>
+      <c r="D21" s="31">
+        <v>92.037499999999994</v>
+      </c>
+      <c r="E21" s="34">
+        <v>4.4855074794603583E-3</v>
+      </c>
+      <c r="F21" s="31">
+        <v>736.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="33">
+        <v>12</v>
+      </c>
+      <c r="D22" s="31">
+        <v>275.5</v>
+      </c>
+      <c r="E22" s="34">
+        <v>3.3566679630349823E-3</v>
+      </c>
+      <c r="F22" s="31">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="33">
+        <v>75</v>
+      </c>
+      <c r="D23" s="31">
+        <v>1072.3908000000001</v>
+      </c>
+      <c r="E23" s="34">
+        <v>0.16332394928373209</v>
+      </c>
+      <c r="F23" s="31">
+        <v>26809.77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="33">
+        <v>7</v>
+      </c>
+      <c r="D24" s="31">
+        <v>70.825000000000003</v>
+      </c>
+      <c r="E24" s="34">
+        <v>1.7258512412482948E-3</v>
+      </c>
+      <c r="F24" s="31">
+        <v>283.3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="33">
+        <v>5</v>
+      </c>
+      <c r="D25" s="31">
+        <v>5780</v>
+      </c>
+      <c r="E25" s="34">
+        <v>7.0423015703601446E-2</v>
+      </c>
+      <c r="F25" s="31">
+        <v>11560</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="33">
+        <v>26</v>
+      </c>
+      <c r="D26" s="31">
+        <v>82.61</v>
+      </c>
+      <c r="E26" s="34">
+        <v>3.5227956134015227E-3</v>
+      </c>
+      <c r="F26" s="31">
+        <v>578.27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="33">
+        <v>12</v>
+      </c>
+      <c r="D27" s="31">
+        <v>2271.1666666666665</v>
+      </c>
+      <c r="E27" s="34">
+        <v>8.3015089532264427E-2</v>
+      </c>
+      <c r="F27" s="31">
+        <v>13627</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="33">
+        <v>25</v>
+      </c>
+      <c r="D28" s="31">
+        <v>126.86666666666667</v>
+      </c>
+      <c r="E28" s="34">
+        <v>4.6371971932163856E-3</v>
+      </c>
+      <c r="F28" s="31">
+        <v>761.2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="33">
+        <v>261</v>
+      </c>
+      <c r="D29" s="31">
+        <v>2508.4965517241376</v>
+      </c>
+      <c r="E29" s="34">
+        <v>0.44316789529242834</v>
+      </c>
+      <c r="F29" s="31">
+        <v>72746.399999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="33">
+        <v>52</v>
+      </c>
+      <c r="D30" s="31">
+        <v>2362.7666666666669</v>
+      </c>
+      <c r="E30" s="34">
+        <v>4.318161437818669E-2</v>
+      </c>
+      <c r="F30" s="31">
+        <v>7088.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="33">
+        <v>45</v>
+      </c>
+      <c r="D31" s="31">
+        <v>1436.16</v>
+      </c>
+      <c r="E31" s="34">
+        <v>4.3745120342943013E-2</v>
+      </c>
+      <c r="F31" s="31">
+        <v>7180.8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="33">
+        <v>34</v>
+      </c>
+      <c r="D32" s="31">
+        <v>3457.8333333333335</v>
+      </c>
+      <c r="E32" s="34">
+        <v>6.3194909463781104E-2</v>
+      </c>
+      <c r="F32" s="31">
+        <v>10373.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="33">
+        <v>4</v>
+      </c>
+      <c r="D33" s="31">
+        <v>3800</v>
+      </c>
+      <c r="E33" s="34">
+        <v>2.3149434227827462E-2</v>
+      </c>
+      <c r="F33" s="31">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="33">
+        <v>76</v>
+      </c>
+      <c r="D34" s="31">
+        <v>2975.38</v>
+      </c>
+      <c r="E34" s="34">
+        <v>9.0629425806306937E-2</v>
+      </c>
+      <c r="F34" s="31">
+        <v>14876.9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="33">
+        <v>38</v>
+      </c>
+      <c r="D35" s="31">
+        <v>152.81666666666666</v>
+      </c>
+      <c r="E35" s="34">
+        <v>5.5857148009197371E-3</v>
+      </c>
+      <c r="F35" s="31">
+        <v>916.9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="33">
+        <v>12</v>
+      </c>
+      <c r="D36" s="31">
+        <v>4751.666666666667</v>
+      </c>
+      <c r="E36" s="34">
+        <v>0.17368167627246342</v>
+      </c>
+      <c r="F36" s="31">
+        <v>28510</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="33">
+        <v>134</v>
+      </c>
+      <c r="D37" s="31">
+        <v>995.26095238095218</v>
+      </c>
+      <c r="E37" s="34">
+        <v>0.12732481239211138</v>
+      </c>
+      <c r="F37" s="31">
+        <v>20900.479999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="33">
+        <v>41</v>
+      </c>
+      <c r="D38" s="31">
+        <v>1877.4166666666667</v>
+      </c>
+      <c r="E38" s="34">
+        <v>6.8622842594569064E-2</v>
+      </c>
+      <c r="F38" s="31">
+        <v>11264.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="33">
+        <v>20</v>
+      </c>
+      <c r="D39" s="31">
+        <v>2646.3666666666668</v>
+      </c>
+      <c r="E39" s="34">
+        <v>4.8364650862669743E-2</v>
+      </c>
+      <c r="F39" s="31">
+        <v>7939.1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="33">
+        <v>41</v>
+      </c>
+      <c r="D40" s="31">
+        <v>355.06666666666666</v>
+      </c>
+      <c r="E40" s="34">
+        <v>6.4891519314425831E-3</v>
+      </c>
+      <c r="F40" s="31">
+        <v>1065.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="33">
+        <v>30</v>
+      </c>
+      <c r="D41" s="31">
+        <v>70.085000000000008</v>
+      </c>
+      <c r="E41" s="34">
+        <v>3.4156381007521852E-3</v>
+      </c>
+      <c r="F41" s="31">
+        <v>560.68000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="33">
+        <v>2</v>
+      </c>
+      <c r="D42" s="31">
+        <v>71</v>
+      </c>
+      <c r="E42" s="34">
+        <v>4.3252890267782892E-4</v>
+      </c>
+      <c r="F42" s="31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="33">
+        <v>907</v>
+      </c>
+      <c r="D43" s="31">
+        <v>1593.6978640776706</v>
+      </c>
+      <c r="E43" s="34">
+        <v>1</v>
+      </c>
+      <c r="F43" s="31">
+        <v>164150.88000000006</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5699,123 +11930,258 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57FAA43-0364-43F2-9EF2-D4397CD3B57E}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B6:B9"/>
+      <selection activeCell="B13" sqref="B13:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="7"/>
       <c r="F3" s="12"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="26" t="s">
         <v>161</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>162</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>163</v>
       </c>
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="31">
+        <v>35899.5</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31">
+        <v>39519.5</v>
+      </c>
+      <c r="F17" s="31">
+        <v>4979.7</v>
+      </c>
+      <c r="G17" s="31">
+        <v>80398.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="31">
+        <v>7794.73</v>
+      </c>
+      <c r="D18" s="31">
+        <v>26809.77</v>
+      </c>
+      <c r="E18" s="31">
+        <v>33226.9</v>
+      </c>
+      <c r="F18" s="31">
+        <v>15920.78</v>
+      </c>
+      <c r="G18" s="31">
+        <v>83752.179999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="31">
+        <v>43694.229999999996</v>
+      </c>
+      <c r="D19" s="31">
+        <v>26809.77</v>
+      </c>
+      <c r="E19" s="31">
+        <v>72746.399999999994</v>
+      </c>
+      <c r="F19" s="31">
+        <v>20900.48</v>
+      </c>
+      <c r="G19" s="31">
+        <v>164150.88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C21"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C22"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C23"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C24"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5827,120 +12193,193 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A72E78-3148-4B47-A25D-EC4532A96BB2}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="7"/>
       <c r="F3" s="12"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>165</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>163</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="31">
+        <v>83752.179999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="31">
+        <v>33649.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="31">
+        <v>24215.200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="31">
+        <v>7180.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="31">
+        <v>15353.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="31">
+        <v>164150.88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5952,132 +12391,322 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F211548-F15A-4282-A781-9BAC564D9317}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="7"/>
       <c r="F3" s="12"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>167</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>168</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>169</v>
       </c>
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>171</v>
       </c>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>172</v>
       </c>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>170</v>
       </c>
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C17"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="31">
+        <v>2174.787872340426</v>
+      </c>
+      <c r="D19" s="34">
+        <v>0.62268950370537168</v>
+      </c>
+      <c r="E19" s="31">
+        <v>19.8</v>
+      </c>
+      <c r="F19" s="31">
+        <v>9350</v>
+      </c>
+      <c r="G19" s="31">
+        <v>102215.03000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1367.9814814814818</v>
+      </c>
+      <c r="D20" s="34">
+        <v>0.22500945471629524</v>
+      </c>
+      <c r="E20" s="31">
+        <v>35</v>
+      </c>
+      <c r="F20" s="31">
+        <v>7000</v>
+      </c>
+      <c r="G20" s="31">
+        <v>36935.500000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="31">
+        <v>862.08103448275858</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0.15230104157833332</v>
+      </c>
+      <c r="E21" s="31">
+        <v>5.37</v>
+      </c>
+      <c r="F21" s="31">
+        <v>9000</v>
+      </c>
+      <c r="G21" s="31">
+        <v>25000.35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="31">
+        <v>1593.6978640776697</v>
+      </c>
+      <c r="D22" s="34">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31">
+        <v>5.37</v>
+      </c>
+      <c r="F22" s="31">
+        <v>9350</v>
+      </c>
+      <c r="G22" s="31">
+        <v>164150.87999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C23"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C24"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6095,29 +12724,29 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
@@ -6125,7 +12754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -6133,18 +12762,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
